--- a/output/page_4.xlsx
+++ b/output/page_4.xlsx
@@ -7,14 +7,32 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1 - Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+  <si>
+    <t>MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t>WesternGlove Centric8 PROD</t>
+  </si>
+  <si>
+    <t>M12225BVS563:KONRAD</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>Placements</t>
+  </si>
   <si>
     <t>Code</t>
   </si>
@@ -514,14 +532,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -537,209 +555,239 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/page_4.xlsx
+++ b/output/page_4.xlsx
@@ -7,28 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="page_4 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
-  <si>
-    <t>MASTER PACKAGE</t>
-  </si>
-  <si>
-    <t>WesternGlove Centric8 PROD</t>
-  </si>
-  <si>
-    <t>M12225BVS563:KONRAD</t>
-  </si>
-  <si>
-    <t>BOM</t>
-  </si>
-  <si>
-    <t>MASTER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+  <si>
+    <t xml:space="preserve"> MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WesternGlove Centric8 PROD                                                             M12225BVS563:KONRAD                                                         BOM                     MASTER</t>
   </si>
   <si>
     <t>Placements</t>
@@ -189,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +188,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -233,9 +259,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,261 +573,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A4:Z4"/>
     <mergeCell ref="A12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/page_4.xlsx
+++ b/output/page_4.xlsx
@@ -80,10 +80,31 @@
 PACKAGE</t>
   </si>
   <si>
-    <t>BLACK TONAL
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLACK TONAL
 (SJC-
 16461U05FG-
 BLKTONE)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Work\Table-extractor\output\page_4_image_1.png</t>
+    </r>
   </si>
   <si>
     <t>1</t>
@@ -103,7 +124,28 @@
 PU</t>
   </si>
   <si>
-    <t>BLACK - 6036#1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLACK - 6036#1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Work\Table-extractor\output\page_4_image_2.png</t>
+    </r>
   </si>
   <si>
     <t>MATCHBOOK
@@ -123,9 +165,30 @@
 black plastic tacks.</t>
   </si>
   <si>
-    <t>Waist Sizing
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Waist Sizing
 (Ladies &amp; Mens) -
 SJC-MB-LMO1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Work\Table-extractor\output\page_4_image_3.png</t>
+    </r>
   </si>
   <si>
     <t>R-Pac
@@ -840,7 +903,6 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
         <v>29</v>
       </c>
